--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>630001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>华商领先企业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002289</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商改革创新股票</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630001</t>
+          <t>008555</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商领先企业混合</t>
+          <t>华商龙头优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>630010</t>
+          <t>000800</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商价值精选混合</t>
+          <t>华商未来主题混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>630010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>华商价值精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000800</t>
+          <t>630006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商未来主题混合</t>
+          <t>华商产业升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.01</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008555</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商龙头优势混合</t>
+          <t>华商改革创新股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>81.25</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -744,15 +834,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.91</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>82.61</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.65</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -790,25 +900,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>008555</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>华商龙头优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>79.88</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.01</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>87.00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>8.69</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008555</t>
+          <t>630006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商龙头优势混合</t>
+          <t>华商产业升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.61</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.45</v>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +1946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.42</v>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1897,13 +1984,759 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2635,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,17 +2647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2666,14 +2687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.22</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2682,14 +2725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.08</v>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2698,14 +2763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.45</v>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2714,14 +2801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.42</v>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2730,13 +2839,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,17 +3122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3141,14 +3162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.66</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3157,14 +3200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.22</v>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3173,14 +3238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.08</v>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3189,14 +3276,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.45</v>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3205,14 +3314,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.42</v>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3221,13 +3352,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,319 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>630001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商领先企业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2732</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7006</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008555</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6999</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6333</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>630010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商价值精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4502</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>630006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商产业升级混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0802</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.87</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -779,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -830,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000800</t>
+          <t>012930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商未来主题混合</t>
+          <t>中庚价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3769</t>
+          <t>2.3354</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -868,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>013393</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>信达澳银价值精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.61</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3205</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -906,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008555</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商龙头优势混合</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.61</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3199</t>
+          <t>0.0866</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -944,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>630010</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商价值精选混合</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>38.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2926</t>
+          <t>0.0749</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -982,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002289</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商改革创新股票</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0383</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1020,36 +846,150 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0559</t>
+          <t>0.0277</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1024,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1114,36 +1054,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000800</t>
+          <t>012930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商未来主题混合</t>
+          <t>中庚价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>54.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.77</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3538</t>
+          <t>2.8769</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1152,36 +1092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>34.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3149</t>
+          <t>0.1907</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1190,36 +1130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008555</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商龙头优势混合</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>38.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3009</t>
+          <t>0.1705</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1228,36 +1168,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>013393</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>信达澳银价值精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>81.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3008</t>
+          <t>0.1166</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1266,32 +1206,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>37.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1093</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1304,36 +1244,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501007</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>34.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0334</t>
+          <t>0.0725</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1342,36 +1282,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1380,36 +1320,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>38.92</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0359</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1418,36 +1358,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010999</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合A</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1456,36 +1396,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>013394</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>信达澳银价值精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>81.31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1494,36 +1434,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>37.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1532,6 +1472,822 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1808,822 +2564,6 @@
       </c>
       <c r="H7" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8431</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3042</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012153</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时研究慧选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2812</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2672</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>36.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0958</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0696</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501007</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0359</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>30.82</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0359</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>30.82</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001190</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华弘润灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.63</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>28.91</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501008</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>012154</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时研究慧选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>36.72</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001191</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华弘润灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.63</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2598,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2688,36 +2628,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012930</t>
+          <t>000800</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值先锋股票</t>
+          <t>华商未来主题混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>78.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8769</t>
+          <t>0.3538</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2726,36 +2666,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.02</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>34.45</t>
+          <t>91.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1907</t>
+          <t>0.3149</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2764,36 +2704,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>008555</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>华商龙头优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.92</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1705</t>
+          <t>0.3009</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2802,36 +2742,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013393</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银价值精选混合A</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.31</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1166</t>
+          <t>0.3008</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2840,32 +2780,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.1093</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2878,36 +2818,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>501007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>34.45</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0725</t>
+          <t>0.0334</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2916,36 +2856,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0572</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2954,36 +2894,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38.92</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0359</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2992,36 +2932,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>010999</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>兴华瑞丰混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -3030,36 +2970,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013394</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信达澳银价值精选混合C</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>81.31</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3068,36 +3008,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3111,7 +3051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3132,7 +3072,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3162,36 +3102,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012930</t>
+          <t>000800</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值先锋股票</t>
+          <t>华商未来主题混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.55</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3354</t>
+          <t>0.3769</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3200,36 +3140,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013393</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银价值精选混合A</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>82.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>0.3205</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3238,36 +3178,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>008555</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>华商龙头优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.52</t>
+          <t>86.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0866</t>
+          <t>0.3199</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3276,36 +3216,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>630010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>华商价值精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38.20</t>
+          <t>79.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0749</t>
+          <t>0.2926</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3314,36 +3254,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>华商改革创新股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0383</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3352,150 +3292,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>630006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>华商产业升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38.52</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0559</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>38.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013394</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信达澳银价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3509,144 +3335,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.71</v>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.66</v>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.22</v>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.87</v>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.71</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.66</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>5.22</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.87</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +2778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2571,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3045,7 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3329,7 +3820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
+++ b/数据整理/stocks/A股/深证主板/002777-久远银海.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.29</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>2.71</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3.66</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>5.22</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>1.08</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.87</v>
       </c>
     </row>
@@ -616,7 +633,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1090,7 +1637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1488,7 +2035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1962,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2778,7 +3325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3062,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3536,7 +4083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3818,326 +4365,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>630001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商领先企业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2732</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7006</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008555</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6999</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6333</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>630010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商价值精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4502</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>630006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商产业升级混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0802</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>